--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cfh-Itgam.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cfh-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.420170375955992</v>
+        <v>0.4449</v>
       </c>
       <c r="H2">
-        <v>0.420170375955992</v>
+        <v>0.8897999999999999</v>
       </c>
       <c r="I2">
-        <v>0.005392669480493571</v>
+        <v>0.005349488063170693</v>
       </c>
       <c r="J2">
-        <v>0.005392669480493571</v>
+        <v>0.003934578179391879</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N2">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O2">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P2">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q2">
-        <v>50.28910324043859</v>
+        <v>55.923528107</v>
       </c>
       <c r="R2">
-        <v>50.28910324043859</v>
+        <v>335.541168642</v>
       </c>
       <c r="S2">
-        <v>0.003133144093662915</v>
+        <v>0.003139714939597925</v>
       </c>
       <c r="T2">
-        <v>0.003133144093662915</v>
+        <v>0.002309424714547675</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.420170375955992</v>
+        <v>0.4449</v>
       </c>
       <c r="H3">
-        <v>0.420170375955992</v>
+        <v>0.8897999999999999</v>
       </c>
       <c r="I3">
-        <v>0.005392669480493571</v>
+        <v>0.005349488063170693</v>
       </c>
       <c r="J3">
-        <v>0.005392669480493571</v>
+        <v>0.003934578179391879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N3">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O3">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P3">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q3">
-        <v>36.26692614697978</v>
+        <v>39.2842691451</v>
       </c>
       <c r="R3">
-        <v>36.26692614697978</v>
+        <v>235.7056148706</v>
       </c>
       <c r="S3">
-        <v>0.002259525386830656</v>
+        <v>0.002205536934115884</v>
       </c>
       <c r="T3">
-        <v>0.002259525386830656</v>
+        <v>0.001622287883608698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9847632747145</v>
+        <v>0.4449</v>
       </c>
       <c r="H4">
-        <v>20.9847632747145</v>
+        <v>0.8897999999999999</v>
       </c>
       <c r="I4">
-        <v>0.2693285841712644</v>
+        <v>0.005349488063170693</v>
       </c>
       <c r="J4">
-        <v>0.2693285841712644</v>
+        <v>0.003934578179391879</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N4">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O4">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P4">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q4">
-        <v>2511.611925036839</v>
+        <v>0.057266045</v>
       </c>
       <c r="R4">
-        <v>2511.611925036839</v>
+        <v>0.34359627</v>
       </c>
       <c r="S4">
-        <v>0.1564800635016033</v>
+        <v>3.215087872749599E-06</v>
       </c>
       <c r="T4">
-        <v>0.1564800635016033</v>
+        <v>2.364865452951371E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.9847632747145</v>
+        <v>0.4449</v>
       </c>
       <c r="H5">
-        <v>20.9847632747145</v>
+        <v>0.8897999999999999</v>
       </c>
       <c r="I5">
-        <v>0.2693285841712644</v>
+        <v>0.005349488063170693</v>
       </c>
       <c r="J5">
-        <v>0.2693285841712644</v>
+        <v>0.003934578179391879</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>86.3148099493295</v>
+        <v>0.04088</v>
       </c>
       <c r="N5">
-        <v>86.3148099493295</v>
+        <v>0.08176</v>
       </c>
       <c r="O5">
-        <v>0.4189994204176315</v>
+        <v>0.0001908783741692303</v>
       </c>
       <c r="P5">
-        <v>0.4189994204176315</v>
+        <v>0.000127260346528834</v>
       </c>
       <c r="Q5">
-        <v>1811.295853888651</v>
+        <v>0.018187512</v>
       </c>
       <c r="R5">
-        <v>1811.295853888651</v>
+        <v>0.072750048</v>
       </c>
       <c r="S5">
-        <v>0.1128485206696611</v>
+        <v>1.021101584135726E-06</v>
       </c>
       <c r="T5">
-        <v>0.1128485206696611</v>
+        <v>5.007157825541995E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.2384062061032</v>
+        <v>22.27293533333333</v>
       </c>
       <c r="H6">
-        <v>17.2384062061032</v>
+        <v>66.818806</v>
       </c>
       <c r="I6">
-        <v>0.2212460286580039</v>
+        <v>0.2678102982635186</v>
       </c>
       <c r="J6">
-        <v>0.2212460286580039</v>
+        <v>0.2954639425271063</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N6">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O6">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P6">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q6">
-        <v>2063.220157839351</v>
+        <v>2799.687851515082</v>
       </c>
       <c r="R6">
-        <v>2063.220157839351</v>
+        <v>25197.19066363574</v>
       </c>
       <c r="S6">
-        <v>0.1285440708805976</v>
+        <v>0.1571828901208477</v>
       </c>
       <c r="T6">
-        <v>0.1285440708805976</v>
+        <v>0.173424367243163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.2384062061032</v>
+        <v>22.27293533333333</v>
       </c>
       <c r="H7">
-        <v>17.2384062061032</v>
+        <v>66.818806</v>
       </c>
       <c r="I7">
-        <v>0.2212460286580039</v>
+        <v>0.2678102982635186</v>
       </c>
       <c r="J7">
-        <v>0.2212460286580039</v>
+        <v>0.2954639425271063</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N7">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O7">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P7">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q7">
-        <v>1487.92975550914</v>
+        <v>1966.680122018598</v>
       </c>
       <c r="R7">
-        <v>1487.92975550914</v>
+        <v>17700.12109816738</v>
       </c>
       <c r="S7">
-        <v>0.09270195777740634</v>
+        <v>0.1104153326788972</v>
       </c>
       <c r="T7">
-        <v>0.09270195777740634</v>
+        <v>0.1218243867959094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.8723346857006</v>
+        <v>22.27293533333333</v>
       </c>
       <c r="H8">
-        <v>18.8723346857006</v>
+        <v>66.818806</v>
       </c>
       <c r="I8">
-        <v>0.2422166556927786</v>
+        <v>0.2678102982635186</v>
       </c>
       <c r="J8">
-        <v>0.2422166556927786</v>
+        <v>0.2954639425271063</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N8">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O8">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P8">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q8">
-        <v>2258.780822512609</v>
+        <v>2.866897992988889</v>
       </c>
       <c r="R8">
-        <v>2258.780822512609</v>
+        <v>25.8020819369</v>
       </c>
       <c r="S8">
-        <v>0.1407280173420074</v>
+        <v>0.0001609562694554642</v>
       </c>
       <c r="T8">
-        <v>0.1407280173420074</v>
+        <v>0.0001775876443210382</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.8723346857006</v>
+        <v>22.27293533333333</v>
       </c>
       <c r="H9">
-        <v>18.8723346857006</v>
+        <v>66.818806</v>
       </c>
       <c r="I9">
-        <v>0.2422166556927786</v>
+        <v>0.2678102982635186</v>
       </c>
       <c r="J9">
-        <v>0.2422166556927786</v>
+        <v>0.2954639425271063</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>86.3148099493295</v>
+        <v>0.04088</v>
       </c>
       <c r="N9">
-        <v>86.3148099493295</v>
+        <v>0.08176</v>
       </c>
       <c r="O9">
-        <v>0.4189994204176315</v>
+        <v>0.0001908783741692303</v>
       </c>
       <c r="P9">
-        <v>0.4189994204176315</v>
+        <v>0.000127260346528834</v>
       </c>
       <c r="Q9">
-        <v>1628.961981696386</v>
+        <v>0.9105175964266666</v>
       </c>
       <c r="R9">
-        <v>1628.961981696386</v>
+        <v>5.46310557856</v>
       </c>
       <c r="S9">
-        <v>0.1014886383507712</v>
+        <v>5.111919431831706E-05</v>
       </c>
       <c r="T9">
-        <v>0.1014886383507712</v>
+        <v>3.760084371277505E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.637632385678523</v>
+        <v>17.70812766666667</v>
       </c>
       <c r="H10">
-        <v>0.637632385678523</v>
+        <v>53.12438300000001</v>
       </c>
       <c r="I10">
-        <v>0.008183681912841528</v>
+        <v>0.2129229435242438</v>
       </c>
       <c r="J10">
-        <v>0.008183681912841528</v>
+        <v>0.2349090111771824</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>119.687408056835</v>
+        <v>125.6990966666667</v>
       </c>
       <c r="N10">
-        <v>119.687408056835</v>
+        <v>377.09729</v>
       </c>
       <c r="O10">
-        <v>0.5810005795823685</v>
+        <v>0.5869187672767673</v>
       </c>
       <c r="P10">
-        <v>0.5810005795823685</v>
+        <v>0.5869561130196211</v>
       </c>
       <c r="Q10">
-        <v>76.31656753495857</v>
+        <v>2225.895651358008</v>
       </c>
       <c r="R10">
-        <v>76.31656753495857</v>
+        <v>20033.06086222208</v>
       </c>
       <c r="S10">
-        <v>0.004754723934478674</v>
+        <v>0.1249684715381899</v>
       </c>
       <c r="T10">
-        <v>0.004754723934478674</v>
+        <v>0.1378812801138417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.637632385678523</v>
+        <v>17.70812766666667</v>
       </c>
       <c r="H11">
-        <v>0.637632385678523</v>
+        <v>53.12438300000001</v>
       </c>
       <c r="I11">
-        <v>0.008183681912841528</v>
+        <v>0.2129229435242438</v>
       </c>
       <c r="J11">
-        <v>0.008183681912841528</v>
+        <v>0.2349090111771824</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.3148099493295</v>
+        <v>88.299099</v>
       </c>
       <c r="N11">
-        <v>86.3148099493295</v>
+        <v>264.897297</v>
       </c>
       <c r="O11">
-        <v>0.4189994204176315</v>
+        <v>0.4122893458348313</v>
       </c>
       <c r="P11">
-        <v>0.4189994204176315</v>
+        <v>0.4123155798773417</v>
       </c>
       <c r="Q11">
-        <v>55.03711818737928</v>
+        <v>1563.611717943639</v>
       </c>
       <c r="R11">
-        <v>55.03711818737928</v>
+        <v>14072.50546149275</v>
       </c>
       <c r="S11">
-        <v>0.003428957978362854</v>
+        <v>0.0877858610988372</v>
       </c>
       <c r="T11">
-        <v>0.003428957978362854</v>
+        <v>0.09685664516193293</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,861 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.7617919808082</v>
+        <v>17.70812766666667</v>
       </c>
       <c r="H12">
-        <v>19.7617919808082</v>
+        <v>53.12438300000001</v>
       </c>
       <c r="I12">
-        <v>0.253632380084618</v>
+        <v>0.2129229435242438</v>
       </c>
       <c r="J12">
-        <v>0.253632380084618</v>
+        <v>0.2349090111771824</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>119.687408056835</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N12">
-        <v>119.687408056835</v>
+        <v>0.38615</v>
       </c>
       <c r="O12">
-        <v>0.5810005795823685</v>
+        <v>0.0006010085142322918</v>
       </c>
       <c r="P12">
-        <v>0.5810005795823685</v>
+        <v>0.0006010467565081856</v>
       </c>
       <c r="Q12">
-        <v>2365.237660741281</v>
+        <v>2.279331166161112</v>
       </c>
       <c r="R12">
-        <v>2365.237660741281</v>
+        <v>20.51398049545</v>
       </c>
       <c r="S12">
-        <v>0.1473605598300186</v>
+        <v>0.0001279685019334719</v>
       </c>
       <c r="T12">
-        <v>0.1473605598300186</v>
+        <v>0.0001411912992425906</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>17.70812766666667</v>
+      </c>
+      <c r="H13">
+        <v>53.12438300000001</v>
+      </c>
+      <c r="I13">
+        <v>0.2129229435242438</v>
+      </c>
+      <c r="J13">
+        <v>0.2349090111771824</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.04088</v>
+      </c>
+      <c r="N13">
+        <v>0.08176</v>
+      </c>
+      <c r="O13">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P13">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q13">
+        <v>0.7239082590133334</v>
+      </c>
+      <c r="R13">
+        <v>4.343449554080001</v>
+      </c>
+      <c r="S13">
+        <v>4.064238528323448E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.989460216515398E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.7617919808082</v>
-      </c>
-      <c r="H13">
-        <v>19.7617919808082</v>
-      </c>
-      <c r="I13">
-        <v>0.253632380084618</v>
-      </c>
-      <c r="J13">
-        <v>0.253632380084618</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>86.3148099493295</v>
-      </c>
-      <c r="N13">
-        <v>86.3148099493295</v>
-      </c>
-      <c r="O13">
-        <v>0.4189994204176315</v>
-      </c>
-      <c r="P13">
-        <v>0.4189994204176315</v>
-      </c>
-      <c r="Q13">
-        <v>1705.735319081644</v>
-      </c>
-      <c r="R13">
-        <v>1705.735319081644</v>
-      </c>
-      <c r="S13">
-        <v>0.1062718202545993</v>
-      </c>
-      <c r="T13">
-        <v>0.1062718202545993</v>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>19.18304766666666</v>
+      </c>
+      <c r="H14">
+        <v>57.54914299999999</v>
+      </c>
+      <c r="I14">
+        <v>0.2306574162914537</v>
+      </c>
+      <c r="J14">
+        <v>0.254474715992923</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N14">
+        <v>377.09729</v>
+      </c>
+      <c r="O14">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P14">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q14">
+        <v>2411.291763013608</v>
+      </c>
+      <c r="R14">
+        <v>21701.62586712247</v>
+      </c>
+      <c r="S14">
+        <v>0.1353771664330241</v>
+      </c>
+      <c r="T14">
+        <v>0.1493654901609781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>19.18304766666666</v>
+      </c>
+      <c r="H15">
+        <v>57.54914299999999</v>
+      </c>
+      <c r="I15">
+        <v>0.2306574162914537</v>
+      </c>
+      <c r="J15">
+        <v>0.254474715992923</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>88.299099</v>
+      </c>
+      <c r="N15">
+        <v>264.897297</v>
+      </c>
+      <c r="O15">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P15">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q15">
+        <v>1693.845825040719</v>
+      </c>
+      <c r="R15">
+        <v>15244.61242536647</v>
+      </c>
+      <c r="S15">
+        <v>0.09509759527475581</v>
+      </c>
+      <c r="T15">
+        <v>0.1049238900887439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>19.18304766666666</v>
+      </c>
+      <c r="H16">
+        <v>57.54914299999999</v>
+      </c>
+      <c r="I16">
+        <v>0.2306574162914537</v>
+      </c>
+      <c r="J16">
+        <v>0.254474715992923</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.38615</v>
+      </c>
+      <c r="O16">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P16">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q16">
+        <v>2.469177952161111</v>
+      </c>
+      <c r="R16">
+        <v>22.22260156945</v>
+      </c>
+      <c r="S16">
+        <v>0.0001386270710619858</v>
+      </c>
+      <c r="T16">
+        <v>0.0001529512026608881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>19.18304766666666</v>
+      </c>
+      <c r="H17">
+        <v>57.54914299999999</v>
+      </c>
+      <c r="I17">
+        <v>0.2306574162914537</v>
+      </c>
+      <c r="J17">
+        <v>0.254474715992923</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.04088</v>
+      </c>
+      <c r="N17">
+        <v>0.08176</v>
+      </c>
+      <c r="O17">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P17">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q17">
+        <v>0.7842029886133332</v>
+      </c>
+      <c r="R17">
+        <v>4.705217931679999</v>
+      </c>
+      <c r="S17">
+        <v>4.4027512611788E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.2384540540086E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6509819999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.952946</v>
+      </c>
+      <c r="I18">
+        <v>0.007827422877812957</v>
+      </c>
+      <c r="J18">
+        <v>0.008635669495539056</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N18">
+        <v>377.09729</v>
+      </c>
+      <c r="O18">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P18">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q18">
+        <v>81.82784934626</v>
+      </c>
+      <c r="R18">
+        <v>736.4506441163401</v>
+      </c>
+      <c r="S18">
+        <v>0.004594061386399947</v>
+      </c>
+      <c r="T18">
+        <v>0.005068759000423717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6509819999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.952946</v>
+      </c>
+      <c r="I19">
+        <v>0.007827422877812957</v>
+      </c>
+      <c r="J19">
+        <v>0.008635669495539056</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>88.299099</v>
+      </c>
+      <c r="N19">
+        <v>264.897297</v>
+      </c>
+      <c r="O19">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P19">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q19">
+        <v>57.481124065218</v>
+      </c>
+      <c r="R19">
+        <v>517.3301165869619</v>
+      </c>
+      <c r="S19">
+        <v>0.003227163057866097</v>
+      </c>
+      <c r="T19">
+        <v>0.003560621075682257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6509819999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.952946</v>
+      </c>
+      <c r="I20">
+        <v>0.007827422877812957</v>
+      </c>
+      <c r="J20">
+        <v>0.008635669495539056</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.38615</v>
+      </c>
+      <c r="O20">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P20">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q20">
+        <v>0.0837922331</v>
+      </c>
+      <c r="R20">
+        <v>0.7541300979</v>
+      </c>
+      <c r="S20">
+        <v>4.704347794062215E-06</v>
+      </c>
+      <c r="T20">
+        <v>5.190441140570428E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6509819999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.952946</v>
+      </c>
+      <c r="I21">
+        <v>0.007827422877812957</v>
+      </c>
+      <c r="J21">
+        <v>0.008635669495539056</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.04088</v>
+      </c>
+      <c r="N21">
+        <v>0.08176</v>
+      </c>
+      <c r="O21">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P21">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q21">
+        <v>0.02661214416</v>
+      </c>
+      <c r="R21">
+        <v>0.15967286496</v>
+      </c>
+      <c r="S21">
+        <v>1.494085752851975E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.098978292510782E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>22.906844</v>
+      </c>
+      <c r="H22">
+        <v>45.813688</v>
+      </c>
+      <c r="I22">
+        <v>0.2754324309798004</v>
+      </c>
+      <c r="J22">
+        <v>0.2025820826278575</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>125.6990966666667</v>
+      </c>
+      <c r="N22">
+        <v>377.09729</v>
+      </c>
+      <c r="O22">
+        <v>0.5869187672767673</v>
+      </c>
+      <c r="P22">
+        <v>0.5869561130196211</v>
+      </c>
+      <c r="Q22">
+        <v>2879.369598284254</v>
+      </c>
+      <c r="R22">
+        <v>17276.21758970552</v>
+      </c>
+      <c r="S22">
+        <v>0.1616564628587077</v>
+      </c>
+      <c r="T22">
+        <v>0.118906791786667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>22.906844</v>
+      </c>
+      <c r="H23">
+        <v>45.813688</v>
+      </c>
+      <c r="I23">
+        <v>0.2754324309798004</v>
+      </c>
+      <c r="J23">
+        <v>0.2025820826278575</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>88.299099</v>
+      </c>
+      <c r="N23">
+        <v>264.897297</v>
+      </c>
+      <c r="O23">
+        <v>0.4122893458348313</v>
+      </c>
+      <c r="P23">
+        <v>0.4123155798773417</v>
+      </c>
+      <c r="Q23">
+        <v>2022.653686133556</v>
+      </c>
+      <c r="R23">
+        <v>12135.92211680134</v>
+      </c>
+      <c r="S23">
+        <v>0.1135578567903592</v>
+      </c>
+      <c r="T23">
+        <v>0.08352774887146462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>22.906844</v>
+      </c>
+      <c r="H24">
+        <v>45.813688</v>
+      </c>
+      <c r="I24">
+        <v>0.2754324309798004</v>
+      </c>
+      <c r="J24">
+        <v>0.2025820826278575</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.38615</v>
+      </c>
+      <c r="O24">
+        <v>0.0006010085142322918</v>
+      </c>
+      <c r="P24">
+        <v>0.0006010467565081856</v>
+      </c>
+      <c r="Q24">
+        <v>2.948492603533333</v>
+      </c>
+      <c r="R24">
+        <v>17.6909556212</v>
+      </c>
+      <c r="S24">
+        <v>0.0001655372361145581</v>
+      </c>
+      <c r="T24">
+        <v>0.000121761303690147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>22.906844</v>
+      </c>
+      <c r="H25">
+        <v>45.813688</v>
+      </c>
+      <c r="I25">
+        <v>0.2754324309798004</v>
+      </c>
+      <c r="J25">
+        <v>0.2025820826278575</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.04088</v>
+      </c>
+      <c r="N25">
+        <v>0.08176</v>
+      </c>
+      <c r="O25">
+        <v>0.0001908783741692303</v>
+      </c>
+      <c r="P25">
+        <v>0.000127260346528834</v>
+      </c>
+      <c r="Q25">
+        <v>0.9364317827199999</v>
+      </c>
+      <c r="R25">
+        <v>3.74572713088</v>
+      </c>
+      <c r="S25">
+        <v>5.257409461890303E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.578066603575403E-05</v>
       </c>
     </row>
   </sheetData>
